--- a/biology/Botanique/Martin_de_Sessé_y_Lacasta/Martin_de_Sessé_y_Lacasta.xlsx
+++ b/biology/Botanique/Martin_de_Sessé_y_Lacasta/Martin_de_Sessé_y_Lacasta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martin_de_Sess%C3%A9_y_Lacasta</t>
+          <t>Martin_de_Sessé_y_Lacasta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin de Sessé y Lacasta est un médecin et un naturaliste espagnol, né le 11 décembre 1751 à Baraguás en Aragon et mort le 4 octobre 1808 à Madrid.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martin_de_Sess%C3%A9_y_Lacasta</t>
+          <t>Martin_de_Sessé_y_Lacasta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à Saragosse avant de venir s’installer au Mexique en 1775. En 1779, il devient médecin militaire avant de s’installer à Cuba puis au Mexique où il devient un membre important de l’élite coloniale.
 En 1785, il contribue à la création d’un enseignement de la botanique à l’université pontificale (aujourd’hui l’université nationale autonome du Mexique) et à la création du Jardin botanique à Mexico en 1788. Sessé cesse alors la pratique de la médecine pour se consacrer exclusivement à la botanique. Il obtient du roi d’Espagne, Charles III (1716-1788) l’autorisation de conduire une importante mission d’étude scientifique du pays, elle inclut notamment le botaniste espagnol Vicente Cervantes (1755-1829) et le botaniste mexicain José Mariano Mociño Suárez de Figueroa (1763-1819) ainsi que des artistes comme Atanasio Echevarría. L’objectif principal est de poursuivre l’œuvre entamée par Francisco Hernández (1514-1578), médecin du roi Philippe II (1527-1598), qui, en 1570, avait étudié la flore d’Amérique centrale et dont le manuscrit avait été retrouvé seulement en 1787.
